--- a/RQ2/rq_2_4.xlsx
+++ b/RQ2/rq_2_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A62DF7-1B5C-4484-9C91-01C99385C5E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79268F4E-3FAA-48B3-AC87-56CB0BDE5090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FEFFABC6-4BDC-4429-8D9F-026095072EAE}"/>
   </bookViews>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4C38F8-20ED-46E7-BE7E-BB2EF0412EB5}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
